--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1094043.192316637</v>
+        <v>1090569.222288338</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564205</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728817</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8563618.131171675</v>
+        <v>8563618.131171674</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>192.4259446411142</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.89518631743352</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>182.3603339273704</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>72.45193186793696</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>52.10844059186254</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.275596830496966</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>42.552497644928</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>96.90827563467317</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>210.5360128072927</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.305787840852442</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.0979169732305</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>126.9957332347074</v>
+        <v>69.09705964401964</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>52.10844059186254</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0651365904254</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>137.6226750441174</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>137.4748318075459</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.5134569480836</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>84.45262105857515</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>321.7064610691125</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>162.3364906735233</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>111.8822753849634</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>27.31958316414087</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>125.4417790696913</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>29.1370725738612</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>130.8252189404857</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>269.027508828177</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.094056147415</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.5134569480836</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.164013692469319</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3715,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.2343831124413</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>145.4508280966903</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>125.3787979092681</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.7177065691261</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4034,16 +4034,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>177.8672840089731</v>
       </c>
       <c r="W44" t="n">
-        <v>267.6048690474385</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>122.3623168480191</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>163.2123634091011</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.603677789272</v>
+        <v>975.5408384191571</v>
       </c>
       <c r="C2" t="n">
-        <v>534.603677789272</v>
+        <v>606.5783214787455</v>
       </c>
       <c r="D2" t="n">
-        <v>534.603677789272</v>
+        <v>248.312622871995</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>248.312622871995</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>248.312622871995</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y2" t="n">
-        <v>921.2035178533938</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1933.544000781331</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C5" t="n">
-        <v>1933.544000781331</v>
+        <v>739.4034003911121</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2568.936631985142</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2237.873744641572</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2654.16677016476</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2654.16677016476</v>
+        <v>2599.261943912492</v>
       </c>
       <c r="T8" t="n">
-        <v>2654.16677016476</v>
+        <v>2380.627276884555</v>
       </c>
       <c r="U8" t="n">
-        <v>2654.16677016476</v>
+        <v>2126.865491522646</v>
       </c>
       <c r="V8" t="n">
-        <v>2323.103882821189</v>
+        <v>2126.865491522646</v>
       </c>
       <c r="W8" t="n">
-        <v>2323.103882821189</v>
+        <v>2126.865491522646</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.103882821189</v>
+        <v>1753.399733261566</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.103882821189</v>
+        <v>1363.260401285755</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>979.5885935818915</v>
+        <v>1584.314837422906</v>
       </c>
       <c r="C11" t="n">
-        <v>979.5885935818915</v>
+        <v>1215.352320482494</v>
       </c>
       <c r="D11" t="n">
-        <v>979.5885935818915</v>
+        <v>857.086621875744</v>
       </c>
       <c r="E11" t="n">
-        <v>593.8003409836472</v>
+        <v>471.2983692774997</v>
       </c>
       <c r="F11" t="n">
-        <v>381.1377017843616</v>
+        <v>60.31246448789216</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>60.31246448789216</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>60.31246448789216</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N11" t="n">
         <v>1836.345445977174</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2092.422847177207</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1739.654191907093</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>1366.188433646013</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y11" t="n">
-        <v>1366.188433646013</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.9284171545819</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C13" t="n">
-        <v>235.9284171545819</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D13" t="n">
-        <v>235.9284171545819</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E13" t="n">
-        <v>235.9284171545819</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F13" t="n">
-        <v>235.9284171545819</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036444</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>677.5250276678174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>463.2366044859801</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.9284171545819</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.6874762441711</v>
+        <v>920.5121489496503</v>
       </c>
       <c r="C14" t="n">
-        <v>335.6874762441711</v>
+        <v>920.5121489496503</v>
       </c>
       <c r="D14" t="n">
-        <v>335.6874762441711</v>
+        <v>920.5121489496503</v>
       </c>
       <c r="E14" t="n">
-        <v>335.6874762441711</v>
+        <v>534.723896351406</v>
       </c>
       <c r="F14" t="n">
-        <v>335.6874762441711</v>
+        <v>123.7379915617984</v>
       </c>
       <c r="G14" t="n">
-        <v>335.6874762441711</v>
+        <v>123.7379915617984</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036444</v>
@@ -5309,19 +5309,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.723949158869</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545184</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X14" t="n">
-        <v>1112.426648284105</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y14" t="n">
-        <v>722.2873163082929</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="15">
@@ -5367,16 +5367,16 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>190.2718927217162</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F16" t="n">
-        <v>190.2718927217162</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G16" t="n">
-        <v>190.2718927217162</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036444</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1273.280804219765</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>904.3182872793529</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036444</v>
@@ -5513,16 +5513,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
         <v>1836.345445977174</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2050.019976259698</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y17" t="n">
-        <v>1659.880644283886</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204936</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615921</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.063382757264</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2330.828100611958</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>2330.828100611958</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>2180.711461199622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>2330.828100611958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>2330.828100611958</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>2330.828100611958</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X19" t="n">
-        <v>2330.828100611958</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>2330.828100611958</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>625.3727659270879</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C20" t="n">
-        <v>625.3727659270879</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D20" t="n">
-        <v>625.3727659270879</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E20" t="n">
-        <v>625.3727659270879</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U20" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V20" t="n">
-        <v>2128.346351498215</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W20" t="n">
-        <v>1775.577696228101</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X20" t="n">
-        <v>1402.111937967022</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y20" t="n">
-        <v>1011.97260599121</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5826,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
         <v>713.8062203571349</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L22" t="n">
         <v>2206.839139259579</v>
@@ -5938,22 +5938,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.821187183471</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.647576838039</v>
       </c>
       <c r="V22" t="n">
-        <v>2442.464602812336</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="W22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C23" t="n">
         <v>1122.952954307291</v>
@@ -5972,43 +5972,43 @@
         <v>1122.952954307291</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090463</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194388</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
@@ -6063,19 +6063,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2158906240411</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>433.3259431261307</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.982837814967</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082162</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6494,19 +6494,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2669.553552468585</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2338.490665125014</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>1985.7220098549</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>1985.7220098549</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.582677879088</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6646,25 +6646,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1392.984777118936</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="C32" t="n">
-        <v>1363.553390680693</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="D32" t="n">
-        <v>1363.553390680693</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="G32" t="n">
         <v>534.603677789272</v>
@@ -6698,13 +6698,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6737,13 +6737,13 @@
         <v>2169.72394915887</v>
       </c>
       <c r="W32" t="n">
-        <v>2169.72394915887</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X32" t="n">
-        <v>2169.72394915887</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y32" t="n">
-        <v>1779.584617183058</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,7 +6798,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6883,25 +6883,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>571.3497027553424</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V34" t="n">
-        <v>571.3497027553424</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7035,22 +7035,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7126,19 +7126,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>184.2708856551153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090463</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194388</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,13 +7172,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7272,22 +7272,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>194.4779671585539</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>58.14905625720215</v>
       </c>
       <c r="J40" t="n">
         <v>53.94298182036445</v>
@@ -7363,19 +7363,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1168.064026826587</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C41" t="n">
-        <v>799.1015098861748</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D41" t="n">
-        <v>799.1015098861748</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E41" t="n">
-        <v>799.1015098861748</v>
+        <v>200.8630102008597</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>200.8630102008597</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.714918859356</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1309.714918859356</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="42">
@@ -7503,10 +7503,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>338.3366048012365</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>180.5882322337666</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7591,28 +7591,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>625.3838260558018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>404.5912469122717</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1568.353113282533</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.353113282533</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
@@ -7649,10 +7649,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>1868.91122770116</v>
       </c>
       <c r="W44" t="n">
-        <v>1568.353113282533</v>
+        <v>1516.142572431046</v>
       </c>
       <c r="X44" t="n">
-        <v>1568.353113282533</v>
+        <v>1516.142572431046</v>
       </c>
       <c r="Y44" t="n">
-        <v>1568.353113282533</v>
+        <v>1126.003240455234</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
         <v>505.8730812692495</v>
@@ -7725,16 +7725,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7746,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.5412816668484</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C46" t="n">
-        <v>177.5412816668484</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D46" t="n">
-        <v>177.5412816668484</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E46" t="n">
-        <v>177.5412816668484</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>177.5412816668484</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7831,25 +7831,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="U46" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V46" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W46" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X46" t="n">
-        <v>579.9823256406182</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y46" t="n">
-        <v>359.1897464970881</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,10 +8778,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O12" t="n">
-        <v>350.4438349360596</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451752</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>221.3582253796808</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.3427523386201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>172.3227076933126</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22838,16 +22838,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>178.7722356403523</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.9259049298837</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>77.50743717429836</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,31 +23176,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>196.3400329344187</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>145.6255284040088</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950185</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>96.56727500692736</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>196.9270395296498</v>
+        <v>254.8257131203375</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853701</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>80.49006577330459</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>301.6179050302575</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923383</v>
@@ -23941,19 +23941,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>148.6591991978603</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724705</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,25 +23969,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>190.2774266625891</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>38.52630155726104</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,16 +24178,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2707130727114</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24370,22 +24370,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>82.85718120047576</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,16 +24446,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>92.07770895168244</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>4.91033042510449</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24655,10 +24655,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24680,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>301.9018946358316</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,7 +24734,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>223.9045843441484</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>41.86802318935966</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>56.69292621882479</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>336.1358191971464</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>282.9589510803092</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25117,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>54.21574611163588</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25366,13 +25366,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.2707130727114</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,13 +25564,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>41.03594549606768</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25603,16 +25603,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>242.4994585510393</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>268.3333419241047</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,19 +25673,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25801,13 +25801,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>9.586823883070082</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>44.94748541103179</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,16 +25922,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>149.8849744611618</v>
       </c>
       <c r="W44" t="n">
-        <v>81.6360996699745</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,19 +26032,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>44.94748541103182</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,16 +26065,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>61.8227420489832</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="C2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="D2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="E2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="F2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="H2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="D2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="E2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="H2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
@@ -26338,22 +26338,22 @@
         <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="N2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="O2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157577</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26488,10 +26488,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401488.0603223926</v>
+        <v>-401903.2748318595</v>
       </c>
       <c r="C6" t="n">
-        <v>188479.818892152</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="D6" t="n">
-        <v>188479.8188921522</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="E6" t="n">
-        <v>222107.4188921519</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="F6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="G6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="H6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="I6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="J6" t="n">
-        <v>45684.19969955918</v>
+        <v>45268.98519009189</v>
       </c>
       <c r="K6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="L6" t="n">
-        <v>222107.4188921519</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="M6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="N6" t="n">
-        <v>222107.4188921523</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="O6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="P6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.204382685</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26805,13 +26805,13 @@
         <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,7 +31759,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31771,7 +31771,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
         <v>255.8615389119865</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>401.1632560839198</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060965</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36212,7 +36212,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,10 +36446,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,10 +36683,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,13 +36844,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,10 +37157,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,10 +37394,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37786,16 +37786,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,10 +38105,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1090569.222288338</v>
+        <v>1119413.533043065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564205</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8563618.131171674</v>
+        <v>8563618.131171675</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>192.4259446411142</v>
+        <v>356.8982206342158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>311.4936872159398</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>72.45193186793696</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>52.10844059186254</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.989590223367</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>96.90827563467317</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>394.2018941786167</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.305787840852442</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>101.7806877295491</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.0555388225932</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H14" t="n">
-        <v>69.09705964401964</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>112.856619986382</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>52.10844059186254</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>337.5738672048676</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480831</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="T22" t="n">
-        <v>129.0246247964034</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2327,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>379.3989011355082</v>
       </c>
       <c r="G23" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>321.7064610691125</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>162.3364906735233</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>111.8822753849634</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>229.5889480231529</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>130.8252189404857</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="U34" t="n">
-        <v>269.027508828177</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>352.0426595656933</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>113.094056147415</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>73.31370764131923</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.164013692469319</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>129.024624796403</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4508280966903</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>164.8783252168511</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>125.3787979092681</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>177.8672840089731</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4062,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>163.2123634091011</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>975.5408384191571</v>
+        <v>2091.914583926163</v>
       </c>
       <c r="C2" t="n">
-        <v>606.5783214787455</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="D2" t="n">
-        <v>248.312622871995</v>
+        <v>1364.686368379001</v>
       </c>
       <c r="E2" t="n">
-        <v>248.312622871995</v>
+        <v>978.8981157807568</v>
       </c>
       <c r="F2" t="n">
-        <v>248.312622871995</v>
+        <v>567.9122109911493</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4369,13 @@
         <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.74576872017</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>1752.280010459091</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.140678483279</v>
+        <v>2478.514423990285</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1108.365917331524</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>739.4034003911121</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>381.1377017843616</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>381.1377017843616</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>381.1377017843616</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2568.936631985142</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2237.873744641572</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1885.105089371457</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1885.105089371457</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1494.965757395646</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261307</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644631</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969933</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>976.6605612216329</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C8" t="n">
-        <v>976.6605612216329</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D8" t="n">
-        <v>618.3948626148824</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E8" t="n">
-        <v>618.3948626148824</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F8" t="n">
-        <v>207.4089578252748</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>365.0435780055836</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2599.261943912492</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2380.627276884555</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2126.865491522646</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2126.865491522646</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2126.865491522646</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.399733261566</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.260401285755</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4893,19 +4895,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.314837422906</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C11" t="n">
-        <v>1215.352320482494</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D11" t="n">
-        <v>857.086621875744</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E11" t="n">
-        <v>471.2983692774997</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F11" t="n">
-        <v>60.31246448789216</v>
+        <v>452.1267133139167</v>
       </c>
       <c r="G11" t="n">
-        <v>60.31246448789216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>60.31246448789216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5075,16 +5077,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y11" t="n">
-        <v>1970.914677487028</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5115,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5124,10 +5126,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>325.6879402326643</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C13" t="n">
-        <v>156.7517573047574</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D13" t="n">
-        <v>156.7517573047574</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E13" t="n">
-        <v>156.7517573047574</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F13" t="n">
-        <v>156.7517573047574</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>208.5445361866202</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>920.5121489496503</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C14" t="n">
-        <v>920.5121489496503</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D14" t="n">
-        <v>920.5121489496503</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E14" t="n">
-        <v>534.723896351406</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F14" t="n">
-        <v>123.7379915617984</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G14" t="n">
-        <v>123.7379915617984</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2070.717079250664</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.251320989584</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>1307.111989013772</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5354,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2158906240411</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="F16" t="n">
-        <v>433.3259431261307</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="G16" t="n">
-        <v>264.3261428644631</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5589,19 +5591,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.95295430729</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.95295430729</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090459</v>
+        <v>812.8904941695187</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194383</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548715</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287635</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5828,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
         <v>713.8062203571349</v>
@@ -5841,13 +5843,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T22" t="n">
-        <v>2566.821187183471</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U22" t="n">
-        <v>2277.647576838039</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632152</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247703</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090468</v>
+        <v>1182.332723154365</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194392</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2567.064746875001</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>2312.380258669114</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>764.6872557005406</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>378.8990031022964</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>378.8990031022964</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.9192350259436</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694737</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694737</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.9192350259436</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>863.1126181035243</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>494.1501011631125</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>494.1501011631125</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>494.1501011631125</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>494.1501011631125</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6497,16 +6499,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1639.851790143458</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1249.712458167646</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6646,19 +6648,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036445</v>
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>666.7503635877424</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>666.7503635877424</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>666.7503635877424</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>666.7503635877424</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>666.7503635877424</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1816.955293888756</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1443.489535627676</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1053.350203651864</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,7 +6800,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="U34" t="n">
-        <v>456.3840257941342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V34" t="n">
-        <v>456.3840257941342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
-        <v>456.3840257941342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>456.3840257941342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,70 +6913,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1564.58148384092</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>820.5275326359249</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>409.5416278463173</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
         <v>2323.683332757143</v>
@@ -7011,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7026,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="C37" t="n">
-        <v>304.5083130726405</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="D37" t="n">
-        <v>304.5083130726405</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="E37" t="n">
-        <v>304.5083130726405</v>
+        <v>2549.23599743583</v>
       </c>
       <c r="F37" t="n">
-        <v>304.5083130726405</v>
+        <v>2402.346049937919</v>
       </c>
       <c r="G37" t="n">
-        <v>190.2718927217162</v>
+        <v>2233.346249676252</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y37" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7150,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X38" t="n">
         <v>2323.683332757143</v>
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.1394333084169</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>500.1394333084169</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>500.1394333084169</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>352.2263397260238</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>352.2263397260238</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>352.2263397260238</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>194.4779671585539</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>58.14905625720215</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>500.1394333084169</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1313.879478346266</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C41" t="n">
-        <v>944.9169614058544</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D41" t="n">
-        <v>586.651262799104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>200.8630102008597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>200.8630102008597</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.387305656314</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W41" t="n">
-        <v>2090.6186503862</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X41" t="n">
-        <v>2090.6186503862</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y41" t="n">
-        <v>1700.479318410388</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7500,31 +7502,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>338.3366048012365</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>180.5882322337666</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7600,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>739.4034003911122</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>739.4034003911122</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>381.1377017843616</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7646,7 +7648,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7673,25 +7675,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1868.91122770116</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1516.142572431046</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1516.142572431046</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1126.003240455234</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
         <v>505.8730812692495</v>
@@ -7725,16 +7727,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7828,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S46" t="n">
-        <v>365.6939024587809</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T46" t="n">
-        <v>200.8329293182748</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U46" t="n">
-        <v>200.8329293182748</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>200.8329293182748</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451761</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22553,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>221.3582253796808</v>
+        <v>56.88594938657923</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22790,16 +22792,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>12.42908554841733</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22838,19 +22840,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>178.7722356403523</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.82580834555245</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>15.93318254099017</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>77.50743717429836</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23245,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>19.58227584217826</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>145.6255284040088</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,7 +23317,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>65.52911452950185</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>3.115350019201941</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H14" t="n">
-        <v>254.8257131203375</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.45318227266895</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>96.92615468724705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>69.30217853684383</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727119</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24029,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>56.25950038248487</v>
       </c>
       <c r="T22" t="n">
-        <v>96.01048066168084</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24215,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>27.47714460620324</v>
       </c>
       <c r="G23" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24418,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>92.07770895168244</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>4.91033042510449</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24658,10 +24660,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>89.8011526503048</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>301.9018946358316</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24737,10 +24739,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>56.69292621882479</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9589510803092</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25126,22 +25128,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744445</v>
       </c>
       <c r="U34" t="n">
-        <v>17.25436541380077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>61.74151045510166</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.21574611163588</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>82.85718120047592</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,13 +25566,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>41.03594549606768</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>157.498373540188</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>268.3333419241047</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>86.34584229143817</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>9.586823883070082</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25840,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>149.8849744611618</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>17.88169127836775</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>61.8227420489832</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26316,7 @@
         <v>289152.6100157575</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
         <v>289152.6100157575</v>
@@ -26323,37 +26325,37 @@
         <v>289152.6100157575</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="H2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="O2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157577</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26488,10 +26490,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26500,10 +26502,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401903.2748318595</v>
+        <v>-401903.2748318597</v>
       </c>
       <c r="C6" t="n">
         <v>188064.6043826848</v>
@@ -26531,37 +26533,37 @@
         <v>221692.2043826848</v>
       </c>
       <c r="F6" t="n">
-        <v>221692.2043826847</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="G6" t="n">
-        <v>221692.2043826849</v>
+        <v>221692.204382685</v>
       </c>
       <c r="H6" t="n">
         <v>221692.2043826847</v>
       </c>
       <c r="I6" t="n">
-        <v>221692.2043826849</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="J6" t="n">
-        <v>45268.98519009189</v>
+        <v>45268.98519009176</v>
       </c>
       <c r="K6" t="n">
         <v>221692.2043826849</v>
       </c>
       <c r="L6" t="n">
+        <v>221692.204382685</v>
+      </c>
+      <c r="M6" t="n">
         <v>221692.2043826849</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>221692.2043826848</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>221692.2043826848</v>
+      </c>
+      <c r="P6" t="n">
         <v>221692.2043826849</v>
-      </c>
-      <c r="O6" t="n">
-        <v>221692.2043826849</v>
-      </c>
-      <c r="P6" t="n">
-        <v>221692.204382685</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26820,10 +26822,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35738,10 +35740,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
